--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B780F7-6438-438D-8F96-76F77AABDF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A108282-BD0B-4837-B5AB-67A17681B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,38 +15,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PLANIFICACIÓN!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Competidor 1</t>
-  </si>
-  <si>
-    <t>Competidor 2</t>
-  </si>
-  <si>
-    <t>Competidor 3</t>
-  </si>
-  <si>
-    <t>Competidor 4</t>
-  </si>
-  <si>
-    <t>Competidor 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -64,6 +37,21 @@
   </si>
   <si>
     <t>PLANIFICACIÓN</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Chej</t>
+  </si>
+  <si>
+    <t>Definir lógica de cada pantalla y flujos de comunicación</t>
+  </si>
+  <si>
+    <t>Creacion de BBDD y E-R</t>
   </si>
 </sst>
 </file>
@@ -136,7 +124,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -155,6 +143,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -168,31 +159,31 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="4" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -265,11 +256,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NOMBRE" totalsRowDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="6" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NOMBRE" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Análisis de la competencia" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -549,7 +540,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,13 +550,13 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="97.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -574,105 +565,83 @@
     </row>
     <row r="3" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44953</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44956</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44953</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44956</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44953</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44956</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -701,6 +670,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -988,15 +966,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1018,6 +987,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1038,14 +1015,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A108282-BD0B-4837-B5AB-67A17681B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBE1C55-3037-4F6A-B707-12C5C4372513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -33,16 +33,7 @@
     <t>TAREA</t>
   </si>
   <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
     <t>PLANIFICACIÓN</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Jon</t>
   </si>
   <si>
     <t>Chej</t>
@@ -52,6 +43,12 @@
   </si>
   <si>
     <t>Creacion de BBDD y E-R</t>
+  </si>
+  <si>
+    <t>PARTICIPANTES</t>
+  </si>
+  <si>
+    <t>Omar, Jon</t>
   </si>
 </sst>
 </file>
@@ -256,7 +253,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F8" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NOMBRE" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PARTICIPANTES" totalsRowDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="3" totalsRowDxfId="2"/>
@@ -540,7 +537,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -556,7 +553,7 @@
     <row r="1" spans="2:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -565,7 +562,7 @@
     </row>
     <row r="3" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -582,7 +579,7 @@
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>44953</v>
@@ -591,15 +588,15 @@
         <v>44956</v>
       </c>
       <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
         <v>44953</v>
@@ -608,28 +605,17 @@
         <v>44956</v>
       </c>
       <c r="E5" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44953</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44956</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
@@ -653,7 +639,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar las ventas anuales en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="D3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar la comparación de productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="E3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar el precio de los productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="F3" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B4:B8" xr:uid="{00000000-0002-0000-0100-000012000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B7:B8 B4:B6" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>Competidores</formula1>
     </dataValidation>
   </dataValidations>
@@ -670,15 +656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -966,6 +943,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -987,14 +973,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,6 +993,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBE1C55-3037-4F6A-B707-12C5C4372513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A26B3-19A3-4F56-B07D-12CDBCFBBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -49,13 +49,19 @@
   </si>
   <si>
     <t>Omar, Jon</t>
+  </si>
+  <si>
+    <t>Creaacion de los Beans</t>
+  </si>
+  <si>
+    <t>Creacion de las vistas de la aplicación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -85,6 +91,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -121,7 +135,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -142,6 +156,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -152,6 +172,9 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -175,9 +198,6 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -254,10 +274,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F8" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PARTICIPANTES" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Análisis de la competencia" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -534,10 +554,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -587,7 +607,7 @@
       <c r="D4" s="6">
         <v>44956</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -604,7 +624,7 @@
       <c r="D5" s="6">
         <v>44956</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -612,22 +632,48 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44956</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44956</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44956</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -639,7 +685,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar las ventas anuales en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="D3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar la comparación de productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="E3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar el precio de los productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="F3" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B7:B8 B4:B6" xr:uid="{00000000-0002-0000-0100-000012000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B4:B8" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>Competidores</formula1>
     </dataValidation>
   </dataValidations>
@@ -656,6 +702,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -943,15 +998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -973,6 +1019,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -993,14 +1047,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A26B3-19A3-4F56-B07D-12CDBCFBBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909D47F6-AA5A-483C-A2DB-2FD62D5B8CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,9 +172,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -198,6 +195,9 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -274,10 +274,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F8" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PARTICIPANTES" totalsRowDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="FECHA FIN" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="HORAS" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAREA" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Análisis de la competencia" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -557,7 +557,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
         <v>44956</v>
       </c>
       <c r="E6" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
@@ -702,15 +702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -998,6 +989,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1019,14 +1019,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1047,6 +1039,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909D47F6-AA5A-483C-A2DB-2FD62D5B8CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06017AC-9F07-49AC-8C62-9521E17E66D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Definir lógica de cada pantalla y flujos de comunicación</t>
   </si>
   <si>
-    <t>Creacion de BBDD y E-R</t>
-  </si>
-  <si>
     <t>PARTICIPANTES</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Creacion de las vistas de la aplicación</t>
+  </si>
+  <si>
+    <t>Creacion de BBDD y defnir el modelo de E-R</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6">
         <v>44953</v>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -645,12 +645,12 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>44956</v>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -702,6 +702,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -989,15 +998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1019,6 +1019,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1039,14 +1047,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06017AC-9F07-49AC-8C62-9521E17E66D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACC851-EFF9-4D4F-BC26-AE755ED8A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -51,10 +51,19 @@
     <t>Creaacion de los Beans</t>
   </si>
   <si>
-    <t>Creacion de las vistas de la aplicación</t>
-  </si>
-  <si>
     <t>Creacion de BBDD y defnir el modelo de E-R</t>
+  </si>
+  <si>
+    <t>Creacion de la vista Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chej </t>
+  </si>
+  <si>
+    <t>Creacion del servlet login | FUNCIONALIDADES: Recuperar contraseña, validar usuario</t>
+  </si>
+  <si>
+    <t>Creacion de la vista Registro</t>
   </si>
 </sst>
 </file>
@@ -92,7 +101,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Tahoma"/>
@@ -271,7 +280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Análisis" displayName="Análisis" ref="B3:F7" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PARTICIPANTES" totalsRowDxfId="8" dataCellStyle="Normal"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FECHA INICIO" dataDxfId="7" totalsRowDxfId="6"/>
@@ -554,10 +563,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -628,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -659,21 +668,60 @@
         <v>44960</v>
       </c>
       <c r="E7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44958</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44958</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44958</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44960</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44958</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44958</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -685,7 +733,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar las ventas anuales en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="D3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar la comparación de productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="E3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use la leyenda de la fila 4 para calificar el precio de los productos en una escala de 0 a 4 en esta columna, debajo de este encabezado." sqref="F3" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B4:B8" xr:uid="{00000000-0002-0000-0100-000012000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una opción de la lista. Seleccione CANCELAR, presione ALT+FLECHA ABAJO para ver las opciones y, después, use la tecla de FLECHA ABAJO y ENTRAR para realizar una selección." sqref="B4:B10" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>Competidores</formula1>
     </dataValidation>
   </dataValidations>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACC851-EFF9-4D4F-BC26-AE755ED8A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0A42A-7888-49EC-AF20-05424E866F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Omar, Jon</t>
   </si>
   <si>
-    <t>Creaacion de los Beans</t>
-  </si>
-  <si>
     <t>Creacion de BBDD y defnir el modelo de E-R</t>
   </si>
   <si>
@@ -64,6 +61,57 @@
   </si>
   <si>
     <t>Creacion de la vista Registro</t>
+  </si>
+  <si>
+    <t>Creacion de los servlet registro |  FUNCIONALIDADES: Crea el usuario</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Finalizacion de la planificacion</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de proveedores | FUNCIONALIDADES : Listar proveedores</t>
+  </si>
+  <si>
+    <t>Creacion de los Beans</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de listado usuarios | FUNCIONALIDADES : Listar usuarios</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de listado productos | FUNCIONALIDADES : Listar productos</t>
+  </si>
+  <si>
+    <t>Creacion de la vista de perfil de usuario y detalle productos, ademas de sus servlets | FUNCIONALIDADES : Mostrar detalles de productos y cambiar el usuario</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de detalle proveedores | FUNCIONALIDADES : Mostrar los detalles del los proveedores</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de el carro | FUNCIONALIDADES : Mostrar productos en el carro</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets de pago | FUNCIONALIDADES : Hacemos el pago a partir de lo productos del carro</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets  detalle producto | FUNCIONALIDADES : Muestra los detalles de los productos</t>
+  </si>
+  <si>
+    <t>Investigacion de como mandar correos desde java</t>
+  </si>
+  <si>
+    <t>Creacion de la vista y servlets  validador | FUNCIONALIDADES : Enviar el correo y verificar</t>
+  </si>
+  <si>
+    <t>Jon, Omar, Chej</t>
+  </si>
+  <si>
+    <t>Correccion de todos los errores que puedan pasar</t>
   </si>
 </sst>
 </file>
@@ -144,7 +192,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -171,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -563,10 +614,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -654,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -665,18 +716,18 @@
         <v>44956</v>
       </c>
       <c r="D7" s="6">
-        <v>44960</v>
+        <v>44929</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
         <v>44958</v>
@@ -688,7 +739,7 @@
         <v>1.45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,12 +756,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>44958</v>
@@ -719,9 +770,215 @@
         <v>44958</v>
       </c>
       <c r="E10" s="7">
-        <v>1.45</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44958</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44958</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44958</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44958</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44960</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44963</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44960</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44963</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44960</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44963</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44965</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44965</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44964</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44965</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44965</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44965</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44965</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44967</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44967</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -750,15 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1046,6 +1294,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1067,14 +1324,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1095,6 +1344,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>

--- a/planificaciónServidor.xltx.xlsx
+++ b/planificaciónServidor.xltx.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0A42A-7888-49EC-AF20-05424E866F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41E6A5-02A2-428F-9223-C9B914E74AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
   </sheetPr>
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
@@ -1007,6 +1007,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1294,15 +1303,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1324,6 +1324,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393B498D-0CA7-4201-9223-2C008CB80913}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1344,14 +1352,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF49CB3-19D5-457E-B30F-E542C450FC26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{777A5722-4D33-44FE-9814-D64063D0A4E5}">
   <ds:schemaRefs>
